--- a/.jwf/borrowerInfo.xlsx
+++ b/.jwf/borrowerInfo.xlsx
@@ -78,7 +78,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -144,7 +144,7 @@
         <v>4.0</v>
       </c>
       <c r="E3" t="n" s="2">
-        <v>44907.52118055556</v>
+        <v>44849.52118055556</v>
       </c>
       <c r="F3" t="n" s="2">
         <v>44908.52118055556</v>
@@ -204,7 +204,7 @@
         <v>4.0</v>
       </c>
       <c r="E6" t="n" s="2">
-        <v>44911.698396631946</v>
+        <v>44906.6983912037</v>
       </c>
       <c r="F6" t="n" s="2">
         <v>44911.69844934028</v>
@@ -244,7 +244,7 @@
         <v>3.0</v>
       </c>
       <c r="E8" t="n" s="2">
-        <v>44911.74424270834</v>
+        <v>44907.74424768519</v>
       </c>
       <c r="F8" t="n" s="2">
         <v>44911.75861673611</v>
@@ -264,7 +264,7 @@
         <v>3.0</v>
       </c>
       <c r="E9" t="n" s="2">
-        <v>44911.761930706016</v>
+        <v>44905.76193287037</v>
       </c>
     </row>
     <row r="10">
@@ -281,7 +281,7 @@
         <v>2.0</v>
       </c>
       <c r="E10" t="n" s="2">
-        <v>44911.76221159722</v>
+        <v>44881.76221064815</v>
       </c>
     </row>
     <row r="11">
@@ -316,6 +316,26 @@
       </c>
       <c r="E12" t="n" s="2">
         <v>44911.78940023148</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="n" s="1">
+        <v>2.02130448E9</v>
+      </c>
+      <c r="C13" t="n" s="1">
+        <v>9.787313209092E12</v>
+      </c>
+      <c r="D13" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E13" t="n" s="2">
+        <v>44913.81238134259</v>
+      </c>
+      <c r="F13" t="n" s="2">
+        <v>44913.81262571759</v>
       </c>
     </row>
   </sheetData>
